--- a/Stage/SteamDB/TableColumns.xlsx
+++ b/Stage/SteamDB/TableColumns.xlsx
@@ -11,7 +11,7 @@
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">工作表1!$A:$D</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">工作表1!$A$1:$D$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -162,12 +162,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +220,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,7 +244,14 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -244,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
@@ -252,12 +277,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,178 +299,178 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" s="4" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -459,7 +484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -470,7 +495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -481,7 +506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -492,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -503,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -514,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -526,7 +551,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A:D"/>
+  <autoFilter ref="A1:D23">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MostPlayedGames"/>
+        <filter val="TopRatedGames_All"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
